--- a/group-reports/tables/shahriar-3-1-results.xlsx
+++ b/group-reports/tables/shahriar-3-1-results.xlsx
@@ -722,12 +722,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>2482</t>
+          <t>2966.9k</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>3559.6k</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>1415</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>10279k</t>
+          <t>11024k</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>565907</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>4460.0k</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>2499.7k</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>2111.7k</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>5710.2k</t>
+          <t>7710.7k</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>3365</t>
+          <t>2150.2k</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>3214.9k</t>
+          <t>3773.0k</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2943</t>
+          <t>2248</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>5972.5k</t>
+          <t>9009</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>5431.8k</t>
+          <t>6647</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>2487.5k</t>
+          <t>3352.6k</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2552,12 +2552,12 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>1010.8k</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>2135.2k</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>2565</t>
+          <t>1696</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>5212.2k</t>
+          <t>6448</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3040,12 +3040,12 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>991327</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2127.7k</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">

--- a/group-reports/tables/shahriar-3-1-results.xlsx
+++ b/group-reports/tables/shahriar-3-1-results.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>1259.97</t>
+          <t>45068.10</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>1257.68</t>
+          <t>50624.71</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>1209703.32</t>
+          <t>349783.45</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>1276.03</t>
+          <t>7619.81</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>1212.89</t>
+          <t>156258.79</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>1266.32</t>
+          <t>30571.82</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>1275.16</t>
+          <t>9532.50</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>1236817.47</t>
+          <t>124094.45</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>1277.56</t>
+          <t>3971.32</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>1270.45</t>
+          <t>20.52</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>1175223.88</t>
+          <t>243746.25</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>1270.74</t>
+          <t>19.71</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>775063.11</t>
+          <t>1524.04</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>684835.57</t>
+          <t>1723.49</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>1267433.54</t>
+          <t>27820.85</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>1276.81</t>
+          <t>5828.10</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>1272.97</t>
+          <t>15084.99</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>1271.29</t>
+          <t>18.75</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>687479.44</t>
+          <t>1742.68</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>1275.74</t>
+          <t>8301.50</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>1273.53</t>
+          <t>13573.38</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
